--- a/Final/BL_weights.xlsx
+++ b/Final/BL_weights.xlsx
@@ -456,37 +456,37 @@
         <v>42736</v>
       </c>
       <c r="B2">
-        <v>0.001120707582071867</v>
+        <v>0.001120707582087775</v>
       </c>
       <c r="C2">
-        <v>-0.01695334304794704</v>
+        <v>-0.0169533129841076</v>
       </c>
       <c r="D2">
-        <v>0.5881596395222849</v>
+        <v>0.5881596395222912</v>
       </c>
       <c r="E2">
-        <v>-0.05215494587410243</v>
+        <v>-0.05215491581026298</v>
       </c>
       <c r="F2">
-        <v>-0.03981851115543037</v>
+        <v>-0.03981848109159093</v>
       </c>
       <c r="G2">
-        <v>0.003997645948260348</v>
+        <v>0.003997645948258226</v>
       </c>
       <c r="H2">
-        <v>0.07024884187570077</v>
+        <v>0.07024882977848003</v>
       </c>
       <c r="I2">
-        <v>0.2366666977972749</v>
+        <v>0.2366666677334694</v>
       </c>
       <c r="J2">
-        <v>0.03025266062179534</v>
+        <v>0.03025267271895085</v>
       </c>
       <c r="K2">
-        <v>-0.01091967585388325</v>
+        <v>-0.01091966375666039</v>
       </c>
       <c r="L2">
-        <v>0.141781234964943</v>
+        <v>0.1417811627400387</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -494,37 +494,37 @@
         <v>42767</v>
       </c>
       <c r="B3">
-        <v>-0.01549476594682312</v>
+        <v>-0.01549475713816332</v>
       </c>
       <c r="C3">
-        <v>0.01924033551471585</v>
+        <v>0.01924034432327384</v>
       </c>
       <c r="D3">
-        <v>0.6242201425961459</v>
+        <v>0.6242201213114585</v>
       </c>
       <c r="E3">
-        <v>0.01726967974635256</v>
+        <v>0.01726967093772563</v>
       </c>
       <c r="F3">
-        <v>-0.003624832592756876</v>
+        <v>-0.003624823784147976</v>
       </c>
       <c r="G3">
-        <v>0.02061311947714155</v>
+        <v>0.02061311066852629</v>
       </c>
       <c r="H3">
-        <v>0.1035383335136124</v>
+        <v>0.103538303420331</v>
       </c>
       <c r="I3">
-        <v>0.1477970426318524</v>
+        <v>0.1477970639166415</v>
       </c>
       <c r="J3">
-        <v>0.0496391455866031</v>
+        <v>0.04963914558648432</v>
       </c>
       <c r="K3">
-        <v>-0.0802696705656049</v>
+        <v>-0.08026961918767228</v>
       </c>
       <c r="L3">
-        <v>0.06945242241975737</v>
+        <v>0.06945239232647812</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -532,37 +532,37 @@
         <v>42795</v>
       </c>
       <c r="B4">
-        <v>-0.05140357249450362</v>
+        <v>-0.05140354234719768</v>
       </c>
       <c r="C4">
-        <v>0.03585580904347244</v>
+        <v>0.03585580904365485</v>
       </c>
       <c r="D4">
-        <v>0.6406839195988684</v>
+        <v>0.6406838894513248</v>
       </c>
       <c r="E4">
-        <v>-0.05187007385934911</v>
+        <v>-0.05187004371173774</v>
       </c>
       <c r="F4">
-        <v>0.1560231687680338</v>
+        <v>0.1560230815814962</v>
       </c>
       <c r="G4">
-        <v>0.003997645948237547</v>
+        <v>0.00399764594826565</v>
       </c>
       <c r="H4">
-        <v>0.1033866369877262</v>
+        <v>0.1033866068400669</v>
       </c>
       <c r="I4">
-        <v>0.1313332656289093</v>
+        <v>0.1313332957764019</v>
       </c>
       <c r="J4">
-        <v>-0.145917662321849</v>
+        <v>-0.1459175449877763</v>
       </c>
       <c r="K4">
-        <v>0.06099108918772429</v>
+        <v>0.0609910590401214</v>
       </c>
       <c r="L4">
-        <v>0.06930072589384151</v>
+        <v>0.06930069574621954</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -570,37 +570,37 @@
         <v>42826</v>
       </c>
       <c r="B5">
-        <v>0.1256635058324949</v>
+        <v>0.1256634335836951</v>
       </c>
       <c r="C5">
-        <v>0.1603986072943011</v>
+        <v>0.1603985350452298</v>
       </c>
       <c r="D5">
-        <v>0.5355131992362304</v>
+        <v>0.535513229400233</v>
       </c>
       <c r="E5">
-        <v>-0.018595711460268</v>
+        <v>-0.01859569953901529</v>
       </c>
       <c r="F5">
-        <v>-0.03965579935050015</v>
+        <v>-0.03965576918758347</v>
       </c>
       <c r="G5">
-        <v>0.05664408623473423</v>
+        <v>0.05664405607076447</v>
       </c>
       <c r="H5">
-        <v>-0.001784083375485949</v>
+        <v>-0.001784053211449374</v>
       </c>
       <c r="I5">
-        <v>0.1119611877409136</v>
+        <v>0.1119612298262199</v>
       </c>
       <c r="J5">
-        <v>-0.00300729469981617</v>
+        <v>-0.003007264535745659</v>
       </c>
       <c r="K5">
-        <v>0.008466809111119637</v>
+        <v>0.008466809111187509</v>
       </c>
       <c r="L5">
-        <v>0.0167764458168975</v>
+        <v>0.01677644581682963</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -608,37 +608,37 @@
         <v>42856</v>
       </c>
       <c r="B6">
-        <v>0.124839935972245</v>
+        <v>0.1248398629565681</v>
       </c>
       <c r="C6">
-        <v>0.159575037433801</v>
+        <v>0.1595749644182725</v>
       </c>
       <c r="D6">
-        <v>0.5356328739694686</v>
+        <v>0.5356329043759804</v>
       </c>
       <c r="E6">
-        <v>-0.05187255933562127</v>
+        <v>-0.05187252892871694</v>
       </c>
       <c r="F6">
-        <v>0.06551740648882881</v>
+        <v>0.06551737608238474</v>
       </c>
       <c r="G6">
-        <v>-0.06719481688873907</v>
+        <v>-0.06719477428026975</v>
       </c>
       <c r="H6">
-        <v>0.05086235691089196</v>
+        <v>0.05086235691090574</v>
       </c>
       <c r="I6">
-        <v>0.1313307801526</v>
+        <v>0.1313308105597228</v>
       </c>
       <c r="J6">
-        <v>-0.002887619966628987</v>
+        <v>-0.002887589559489229</v>
       </c>
       <c r="K6">
-        <v>-0.06272565372609136</v>
+        <v>-0.06272561111759659</v>
       </c>
       <c r="L6">
-        <v>0.06930321137013382</v>
+        <v>0.06930318096312345</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -646,37 +646,37 @@
         <v>42887</v>
       </c>
       <c r="B7">
-        <v>0.03749470080196767</v>
+        <v>0.03749467964681548</v>
       </c>
       <c r="C7">
-        <v>-0.01704335742549056</v>
+        <v>-0.01704332712504251</v>
       </c>
       <c r="D7">
-        <v>0.5517856463023493</v>
+        <v>0.5517856674575184</v>
       </c>
       <c r="E7">
-        <v>-0.05224496025161308</v>
+        <v>-0.05224492995113691</v>
       </c>
       <c r="F7">
-        <v>-0.03990852553297813</v>
+        <v>-0.03990849523244948</v>
       </c>
       <c r="G7">
-        <v>-0.03237634727161637</v>
+        <v>-0.03237632611652198</v>
       </c>
       <c r="H7">
-        <v>-0.03841080277805646</v>
+        <v>-0.03841075132247319</v>
       </c>
       <c r="I7">
-        <v>0.2731307053947074</v>
+        <v>0.2731306539390265</v>
       </c>
       <c r="J7">
-        <v>0.1389123052755038</v>
+        <v>0.1389122538199757</v>
       </c>
       <c r="K7">
-        <v>0.02499198236012957</v>
+        <v>0.02499197321474144</v>
       </c>
       <c r="L7">
-        <v>0.1060496055059981</v>
+        <v>0.1060495540504191</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -684,37 +684,37 @@
         <v>42917</v>
       </c>
       <c r="B8">
-        <v>0.05389269827586684</v>
+        <v>0.05389266830681167</v>
       </c>
       <c r="C8">
-        <v>0.08862779973750337</v>
+        <v>0.08862776976829549</v>
       </c>
       <c r="D8">
         <v>0.5881596395222933</v>
       </c>
       <c r="E8">
-        <v>-0.05211778447633422</v>
+        <v>-0.05211775450732996</v>
       </c>
       <c r="F8">
-        <v>-0.03978134975778942</v>
+        <v>-0.0397813197885476</v>
       </c>
       <c r="G8">
-        <v>-0.0006608900630385845</v>
+        <v>-0.0006608882580097549</v>
       </c>
       <c r="H8">
-        <v>0.04620382089961052</v>
+        <v>0.0462038227046245</v>
       </c>
       <c r="I8">
-        <v>0.1357440910233117</v>
+        <v>0.1357441191872065</v>
       </c>
       <c r="J8">
-        <v>0.001525690903989342</v>
+        <v>0.001525719068155664</v>
       </c>
       <c r="K8">
-        <v>0.01312534512222927</v>
+        <v>0.01312534331718347</v>
       </c>
       <c r="L8">
-        <v>0.1176618911934208</v>
+        <v>0.1176618330602459</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -722,37 +722,37 @@
         <v>42948</v>
       </c>
       <c r="B9">
-        <v>-0.05176336125656114</v>
+        <v>-0.05176333097087328</v>
       </c>
       <c r="C9">
-        <v>-0.08946307386406535</v>
+        <v>-0.08946300129318284</v>
       </c>
       <c r="D9">
-        <v>0.5352755706837288</v>
+        <v>0.5352756009693933</v>
       </c>
       <c r="E9">
-        <v>0.05353827505611285</v>
+        <v>0.0535382447704865</v>
       </c>
       <c r="F9">
-        <v>-0.03989342790266245</v>
+        <v>-0.03989339761693006</v>
       </c>
       <c r="G9">
-        <v>0.05688171478685412</v>
+        <v>0.05688168450124474</v>
       </c>
       <c r="H9">
-        <v>0.1761812398185546</v>
+        <v>0.176181167247499</v>
       </c>
       <c r="I9">
-        <v>0.183857545705586</v>
+        <v>0.1838575457055012</v>
       </c>
       <c r="J9">
-        <v>0.04963914558658613</v>
+        <v>0.04963914558678974</v>
       </c>
       <c r="K9">
-        <v>-0.01108393611943582</v>
+        <v>-0.01108392411952497</v>
       </c>
       <c r="L9">
-        <v>0.08921125988605627</v>
+        <v>0.08921121760057263</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -760,37 +760,37 @@
         <v>42979</v>
       </c>
       <c r="B10">
-        <v>0.001120707582217687</v>
+        <v>0.001120707582073457</v>
       </c>
       <c r="C10">
-        <v>-0.05317415945718657</v>
+        <v>-0.05317410814566742</v>
       </c>
       <c r="D10">
-        <v>0.5718004530861625</v>
+        <v>0.5718004625772827</v>
       </c>
       <c r="E10">
-        <v>-0.0883757622831659</v>
+        <v>-0.08837571097187583</v>
       </c>
       <c r="F10">
-        <v>0.0293498273722706</v>
+        <v>0.02934981788111647</v>
       </c>
       <c r="G10">
-        <v>0.05669222341679476</v>
+        <v>0.05669219301533828</v>
       </c>
       <c r="H10">
-        <v>0.1035569343794126</v>
+        <v>0.1035569039779871</v>
       </c>
       <c r="I10">
-        <v>0.2201929367375574</v>
+        <v>0.2201929158280706</v>
       </c>
       <c r="J10">
-        <v>0.1386691140876439</v>
+        <v>0.1386690627757854</v>
       </c>
       <c r="K10">
-        <v>0.0448022001430825</v>
+        <v>0.04480217923314603</v>
       </c>
       <c r="L10">
-        <v>-0.07225352268360773</v>
+        <v>-0.07225347137227417</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -798,37 +798,37 @@
         <v>43009</v>
       </c>
       <c r="B11">
-        <v>-0.01541572627173931</v>
+        <v>-0.01541571697238453</v>
       </c>
       <c r="C11">
-        <v>0.0193193751895499</v>
+        <v>0.0193193844891905</v>
       </c>
       <c r="D11">
-        <v>0.5519111545971408</v>
+        <v>0.5519111755321139</v>
       </c>
       <c r="E11">
-        <v>-0.08837919748676636</v>
+        <v>-0.0883791463172497</v>
       </c>
       <c r="F11">
-        <v>-0.02325784398904254</v>
+        <v>-0.02325782305396347</v>
       </c>
       <c r="G11">
-        <v>-0.01253878790563196</v>
+        <v>-0.01253877860619393</v>
       </c>
       <c r="H11">
-        <v>0.06739879076479302</v>
+        <v>0.06739878146535073</v>
       </c>
       <c r="I11">
-        <v>0.2366424644845689</v>
+        <v>0.2366424342503604</v>
       </c>
       <c r="J11">
-        <v>0.049639145586654</v>
+        <v>0.04963914558653947</v>
       </c>
       <c r="K11">
-        <v>0.09750021281519775</v>
+        <v>0.09750016164560049</v>
       </c>
       <c r="L11">
-        <v>0.06956136459611841</v>
+        <v>0.06956133436161481</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -836,37 +836,37 @@
         <v>43040</v>
       </c>
       <c r="B12">
-        <v>-0.03511929751125543</v>
+        <v>-0.03511927594496413</v>
       </c>
       <c r="C12">
-        <v>0.01929397113523474</v>
+        <v>0.01929397954316965</v>
       </c>
       <c r="D12">
-        <v>0.5715978016140429</v>
+        <v>0.5715978100218803</v>
       </c>
       <c r="E12">
-        <v>-0.08838764187761873</v>
+        <v>-0.08838759033695698</v>
       </c>
       <c r="F12">
-        <v>-0.003571196972229496</v>
+        <v>-0.003571188564239437</v>
       </c>
       <c r="G12">
-        <v>-0.03224235914511468</v>
+        <v>-0.03224233757874807</v>
       </c>
       <c r="H12">
-        <v>0.1036641999125773</v>
+        <v>0.1036641699382891</v>
       </c>
       <c r="I12">
-        <v>0.236659388707545</v>
+        <v>0.2366593587331279</v>
       </c>
       <c r="J12">
-        <v>0.1024409885881039</v>
+        <v>0.1024409586140347</v>
       </c>
       <c r="K12">
-        <v>-0.02777319598245741</v>
+        <v>-0.02777317441609506</v>
       </c>
       <c r="L12">
-        <v>0.1058182939121069</v>
+        <v>0.1058182423714372</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -874,37 +874,37 @@
         <v>43070</v>
       </c>
       <c r="B13">
-        <v>0.001120707582020432</v>
+        <v>0.00112070758216042</v>
       </c>
       <c r="C13">
-        <v>0.08849149522682216</v>
+        <v>0.08849146505758908</v>
       </c>
       <c r="D13">
-        <v>0.6407953257053801</v>
+        <v>0.6407952955363548</v>
       </c>
       <c r="E13">
-        <v>0.05328989240061693</v>
+        <v>0.05328986223148247</v>
       </c>
       <c r="F13">
-        <v>0.01299064093617364</v>
+        <v>0.01299064093607183</v>
       </c>
       <c r="G13">
-        <v>-0.04863804023489689</v>
+        <v>-0.0486380100658144</v>
       </c>
       <c r="H13">
-        <v>0.07012893524487883</v>
+        <v>0.07012892334712334</v>
       </c>
       <c r="I13">
-        <v>0.1119552811884992</v>
+        <v>0.1119553232554289</v>
       </c>
       <c r="J13">
-        <v>-0.07489880511374014</v>
+        <v>-0.07489873287771734</v>
       </c>
       <c r="K13">
-        <v>-0.04416887707223539</v>
+        <v>-0.04416884690315501</v>
       </c>
       <c r="L13">
-        <v>0.1413143965173457</v>
+        <v>0.1413143242813855</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -912,37 +912,37 @@
         <v>43101</v>
       </c>
       <c r="B14">
-        <v>0.02031883078419679</v>
+        <v>0.02031881875568713</v>
       </c>
       <c r="C14">
-        <v>-0.01709853052083671</v>
+        <v>-0.01709850041794393</v>
       </c>
       <c r="D14">
-        <v>0.5352052999579943</v>
+        <v>0.5352053300609115</v>
       </c>
       <c r="E14">
-        <v>-0.07149825654902264</v>
+        <v>-0.07149821441763927</v>
       </c>
       <c r="F14">
-        <v>-0.03996369862819331</v>
+        <v>-0.03996366852547976</v>
       </c>
       <c r="G14">
-        <v>-0.01520047725388685</v>
+        <v>-0.01520046522538885</v>
       </c>
       <c r="H14">
-        <v>0.1230148196773833</v>
+        <v>0.1230147775459999</v>
       </c>
       <c r="I14">
-        <v>0.2368118852701057</v>
+        <v>0.2368118551671376</v>
       </c>
       <c r="J14">
-        <v>0.1025934851508173</v>
+        <v>0.102593455047968</v>
       </c>
       <c r="K14">
-        <v>0.06142114867527448</v>
+        <v>0.06142111857239337</v>
       </c>
       <c r="L14">
-        <v>0.01677644581704445</v>
+        <v>0.0167764458170402</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -950,37 +950,37 @@
         <v>43132</v>
       </c>
       <c r="B15">
-        <v>-0.1295807971879769</v>
+        <v>-0.1295807245145015</v>
       </c>
       <c r="C15">
-        <v>0.06178727588757853</v>
+        <v>0.06178726448019033</v>
       </c>
       <c r="D15">
-        <v>0.6405446584849686</v>
+        <v>0.6405446278504721</v>
       </c>
       <c r="E15">
-        <v>0.05303922518123726</v>
+        <v>0.05303919454694442</v>
       </c>
       <c r="F15">
-        <v>0.01299064093581731</v>
+        <v>0.01299064093744625</v>
       </c>
       <c r="G15">
-        <v>0.003997645948225882</v>
+        <v>0.003997645948293754</v>
       </c>
       <c r="H15">
-        <v>0.02493089006785115</v>
+        <v>0.02493090147368305</v>
       </c>
       <c r="I15">
-        <v>0.1838575457060272</v>
+        <v>0.1838575457057557</v>
       </c>
       <c r="J15">
-        <v>0.07557061242951293</v>
+        <v>0.07557060102380457</v>
       </c>
       <c r="K15">
-        <v>-0.04391820985303177</v>
+        <v>-0.04391817921846743</v>
       </c>
       <c r="L15">
-        <v>0.06916146478096406</v>
+        <v>0.06916143414649305</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -988,37 +988,37 @@
         <v>43160</v>
       </c>
       <c r="B16">
-        <v>0.001120707582048005</v>
+        <v>0.001120707581708642</v>
       </c>
       <c r="C16">
-        <v>0.03585580904365061</v>
+        <v>0.03585580904349789</v>
       </c>
       <c r="D16">
-        <v>0.588159639521462</v>
+        <v>0.5881596395220049</v>
       </c>
       <c r="E16">
-        <v>0.0006542062174040139</v>
+        <v>0.0006542062174421923</v>
       </c>
       <c r="F16">
-        <v>0.01299064093717476</v>
+        <v>0.01299064093690327</v>
       </c>
       <c r="G16">
-        <v>0.003997645948276786</v>
+        <v>0.003997645948268302</v>
       </c>
       <c r="H16">
-        <v>0.05086235691095028</v>
+        <v>0.05086235691087393</v>
       </c>
       <c r="I16">
-        <v>0.1838575457047376</v>
+        <v>0.1838575457058236</v>
       </c>
       <c r="J16">
-        <v>0.04963914558738363</v>
+        <v>0.04963914558629767</v>
       </c>
       <c r="K16">
-        <v>0.00846680911091602</v>
+        <v>0.008466809110848147</v>
       </c>
       <c r="L16">
-        <v>0.01677644581704597</v>
+        <v>0.01677644581703749</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1026,37 +1026,37 @@
         <v>43191</v>
       </c>
       <c r="B17">
-        <v>-0.1263101905862629</v>
+        <v>-0.1263101190336061</v>
       </c>
       <c r="C17">
-        <v>-0.01748503446688348</v>
+        <v>-0.0174850043666091</v>
       </c>
       <c r="D17">
-        <v>0.5881596395215977</v>
+        <v>0.5881596395222085</v>
       </c>
       <c r="E17">
-        <v>0.0006542062175100651</v>
+        <v>0.0006542062175397594</v>
       </c>
       <c r="F17">
-        <v>-0.04035020257398078</v>
+        <v>-0.04035017247486448</v>
       </c>
       <c r="G17">
-        <v>-0.123433252220094</v>
+        <v>-0.1234331806673238</v>
       </c>
       <c r="H17">
-        <v>0.05086235691090574</v>
+        <v>0.05086235691090787</v>
       </c>
       <c r="I17">
-        <v>0.3112884438740878</v>
+        <v>0.3112883723218574</v>
       </c>
       <c r="J17">
-        <v>0.1770700437549861</v>
+        <v>0.1770699722016612</v>
       </c>
       <c r="K17">
-        <v>0.06180765262126981</v>
+        <v>0.06180762252124996</v>
       </c>
       <c r="L17">
-        <v>0.07011728932738545</v>
+        <v>0.07011725922745414</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1064,37 +1064,37 @@
         <v>43221</v>
       </c>
       <c r="B18">
-        <v>-0.08710051580911268</v>
+        <v>-0.08710046462505218</v>
       </c>
       <c r="C18">
-        <v>-0.0001665878051247247</v>
+        <v>-0.0001665669144216932</v>
       </c>
       <c r="D18">
-        <v>0.5521372426734608</v>
+        <v>0.5521372635643504</v>
       </c>
       <c r="E18">
-        <v>0.08887542960864954</v>
+        <v>0.08887537842468024</v>
       </c>
       <c r="F18">
-        <v>0.0651894674785187</v>
+        <v>0.06518943718518455</v>
       </c>
       <c r="G18">
-        <v>0.09221886933944755</v>
+        <v>0.09221881815546445</v>
       </c>
       <c r="H18">
-        <v>0.1390835803020876</v>
+        <v>0.1390835291181014</v>
       </c>
       <c r="I18">
-        <v>0.1316587191632495</v>
+        <v>0.1316587494565751</v>
       </c>
       <c r="J18">
-        <v>-0.002559680955835289</v>
+        <v>-0.002559650662645376</v>
       </c>
       <c r="K18">
-        <v>-0.07975441428026535</v>
+        <v>-0.07975436309628757</v>
       </c>
       <c r="L18">
-        <v>0.05279884266582024</v>
+        <v>0.05279882177503979</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1102,37 +1102,37 @@
         <v>43252</v>
       </c>
       <c r="B19">
-        <v>0.001120707582013008</v>
+        <v>0.001120707581999222</v>
       </c>
       <c r="C19">
-        <v>0.07174831348778236</v>
+        <v>0.07174829296268856</v>
       </c>
       <c r="D19">
-        <v>0.6763875207833897</v>
+        <v>0.6763874705122918</v>
       </c>
       <c r="E19">
-        <v>-0.01578866615560908</v>
+        <v>-0.01578865693438801</v>
       </c>
       <c r="F19">
-        <v>0.10121852219727</v>
+        <v>0.101218471926172</v>
       </c>
       <c r="G19">
-        <v>0.02044051832134714</v>
+        <v>0.02044050910014198</v>
       </c>
       <c r="H19">
-        <v>0.01496985246690072</v>
+        <v>0.01496987299182165</v>
       </c>
       <c r="I19">
-        <v>0.1315221688888421</v>
+        <v>0.1315221986348335</v>
       </c>
       <c r="J19">
-        <v>-0.03858873567466291</v>
+        <v>-0.0385886854034971</v>
       </c>
       <c r="K19">
-        <v>-0.04386856770621823</v>
+        <v>-0.04386853796008259</v>
       </c>
       <c r="L19">
-        <v>0.03321931819014257</v>
+        <v>0.03321930896894173</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1140,37 +1140,37 @@
         <v>43282</v>
       </c>
       <c r="B20">
-        <v>0.09015958014112389</v>
+        <v>0.09015952861189128</v>
       </c>
       <c r="C20">
-        <v>0.0522418893043143</v>
+        <v>0.05224188025096266</v>
       </c>
       <c r="D20">
         <v>0.5881596395222255</v>
       </c>
       <c r="E20">
-        <v>-0.08838466634170263</v>
+        <v>-0.0883846148124138</v>
       </c>
       <c r="F20">
-        <v>-0.02333575521293118</v>
+        <v>-0.02333573397500818</v>
       </c>
       <c r="G20">
-        <v>-0.04871483046165505</v>
+        <v>-0.0487148001703083</v>
       </c>
       <c r="H20">
-        <v>0.03447627665018266</v>
+        <v>0.03447628570357884</v>
       </c>
       <c r="I20">
-        <v>0.272896418264926</v>
+        <v>0.2728963667353911</v>
       </c>
       <c r="J20">
-        <v>0.1386780181457012</v>
+        <v>0.1386779666164845</v>
       </c>
       <c r="K20">
-        <v>-0.02785958703827152</v>
+        <v>-0.02785956580029762</v>
       </c>
       <c r="L20">
-        <v>-0.03593603059286783</v>
+        <v>-0.03593600030151685</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1178,37 +1178,37 @@
         <v>43313</v>
       </c>
       <c r="B21">
-        <v>-0.01596705548769081</v>
+        <v>-0.01596704646754909</v>
       </c>
       <c r="C21">
-        <v>0.01876804597369545</v>
+        <v>0.01876805499386367</v>
       </c>
       <c r="D21">
-        <v>0.5710718764524655</v>
+        <v>0.5710718854726168</v>
       </c>
       <c r="E21">
-        <v>0.0006542062174231031</v>
+        <v>0.0006542062174549185</v>
       </c>
       <c r="F21">
-        <v>-0.0397814427106762</v>
+        <v>-0.03978141278024062</v>
       </c>
       <c r="G21">
-        <v>-0.03168667462872183</v>
+        <v>-0.031686653718446</v>
       </c>
       <c r="H21">
-        <v>0.1393187611347051</v>
+        <v>0.1393187102939961</v>
       </c>
       <c r="I21">
-        <v>0.2009453087757109</v>
+        <v>0.2009452997555087</v>
       </c>
       <c r="J21">
-        <v>0.06672690865633767</v>
+        <v>0.06672689963620337</v>
       </c>
       <c r="K21">
-        <v>0.02555457218074179</v>
+        <v>0.02555456316058947</v>
       </c>
       <c r="L21">
-        <v>0.0167764458170412</v>
+        <v>0.01677644581704491</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1216,37 +1216,37 @@
         <v>43344</v>
       </c>
       <c r="B22">
-        <v>-0.08802760582180851</v>
+        <v>-0.08802755405832903</v>
       </c>
       <c r="C22">
-        <v>-0.05329250436036605</v>
+        <v>-0.05329245259683354</v>
       </c>
       <c r="D22">
-        <v>0.6409062198615323</v>
+        <v>0.6409061893122161</v>
       </c>
       <c r="E22">
-        <v>-0.0357475268472443</v>
+        <v>-0.03574750563307677</v>
       </c>
       <c r="F22">
-        <v>0.06573722127536169</v>
+        <v>0.06573719072592672</v>
       </c>
       <c r="G22">
-        <v>-0.01234720132627566</v>
+        <v>-0.01234719199111854</v>
       </c>
       <c r="H22">
-        <v>0.06720720418542413</v>
+        <v>0.06720719485026846</v>
       </c>
       <c r="I22">
-        <v>0.1675126984312372</v>
+        <v>0.1675127077664537</v>
       </c>
       <c r="J22">
-        <v>0.08604087865117081</v>
+        <v>0.08604085743703721</v>
       </c>
       <c r="K22">
-        <v>0.00846680911091708</v>
+        <v>0.008466809110920261</v>
       </c>
       <c r="L22">
-        <v>0.1059247592209825</v>
+        <v>0.1059247074574697</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1254,37 +1254,37 @@
         <v>43374</v>
       </c>
       <c r="B23">
-        <v>-0.1048340812456363</v>
+        <v>-0.1048340246978457</v>
       </c>
       <c r="C23">
-        <v>-0.01609192870685957</v>
+        <v>-0.01609190212528615</v>
       </c>
       <c r="D23">
-        <v>0.5881596395222085</v>
+        <v>0.5881596395224121</v>
       </c>
       <c r="E23">
-        <v>0.0006542062173870457</v>
+        <v>0.0006542062174506764</v>
       </c>
       <c r="F23">
-        <v>-0.04101641014144593</v>
+        <v>-0.04101638017529233</v>
       </c>
       <c r="G23">
-        <v>0.006056959274688361</v>
+        <v>0.006056955890895083</v>
       </c>
       <c r="H23">
-        <v>-0.003144694166062674</v>
+        <v>-0.00314466420049235</v>
       </c>
       <c r="I23">
-        <v>0.2898123345338643</v>
+        <v>0.2898122779862687</v>
       </c>
       <c r="J23">
-        <v>0.0475798322598967</v>
+        <v>0.0475798356439042</v>
       </c>
       <c r="K23">
-        <v>0.1144215979384922</v>
+        <v>0.1144215413909932</v>
       </c>
       <c r="L23">
-        <v>0.07078349689395712</v>
+        <v>0.07078346692842286</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1292,37 +1292,37 @@
         <v>43405</v>
       </c>
       <c r="B24">
-        <v>0.101705483068506</v>
+        <v>0.1017054241350903</v>
       </c>
       <c r="C24">
-        <v>-0.01780427314447106</v>
+        <v>-0.01780424279809437</v>
       </c>
       <c r="D24">
-        <v>0.4875748640354536</v>
+        <v>0.4875749229692171</v>
       </c>
       <c r="E24">
-        <v>-0.05300587597056917</v>
+        <v>-0.0530058456242943</v>
       </c>
       <c r="F24">
-        <v>-0.04066944125205831</v>
+        <v>-0.04066941090581737</v>
       </c>
       <c r="G24">
-        <v>0.003997645948276786</v>
+        <v>0.003997645948247091</v>
       </c>
       <c r="H24">
-        <v>0.09778705020924203</v>
+        <v>0.09778702162222588</v>
       </c>
       <c r="I24">
-        <v>0.1369328524073516</v>
+        <v>0.1369328809945687</v>
       </c>
       <c r="J24">
-        <v>0.1032992277744427</v>
+        <v>0.1032991974279281</v>
       </c>
       <c r="K24">
-        <v>0.01520219800065686</v>
+        <v>0.0152021962413891</v>
       </c>
       <c r="L24">
-        <v>0.1173612213034233</v>
+        <v>0.1173611623700925</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1330,37 +1330,37 @@
         <v>43435</v>
       </c>
       <c r="B25">
-        <v>-0.0530629821365953</v>
+        <v>-0.05306295146775523</v>
       </c>
       <c r="C25">
-        <v>-0.07251269530950512</v>
+        <v>-0.07251263682519493</v>
       </c>
       <c r="D25">
-        <v>0.5339748248865254</v>
+        <v>0.5339748527018597</v>
       </c>
       <c r="E25">
-        <v>0.0006542062177985242</v>
+        <v>0.0006542062199704519</v>
       </c>
       <c r="F25">
-        <v>-0.04119417369939081</v>
+        <v>-0.04119414589111519</v>
       </c>
       <c r="G25">
-        <v>0.05818133566527418</v>
+        <v>0.05818130499541602</v>
       </c>
       <c r="H25">
-        <v>0.1592308612641824</v>
+        <v>0.159230802781552</v>
       </c>
       <c r="I25">
-        <v>0.1296738559882323</v>
+        <v>0.1296738866623665</v>
       </c>
       <c r="J25">
-        <v>-0.004544544130818503</v>
+        <v>-0.004544513462792905</v>
       </c>
       <c r="K25">
-        <v>0.1168353134638512</v>
+        <v>0.1168352549804912</v>
       </c>
       <c r="L25">
-        <v>0.1251449501703417</v>
+        <v>0.125144891687618</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1368,37 +1368,37 @@
         <v>43466</v>
       </c>
       <c r="B26">
-        <v>0.04470111628363475</v>
+        <v>0.04470108859373768</v>
       </c>
       <c r="C26">
-        <v>0.07943621774519492</v>
+        <v>0.07943619005598507</v>
       </c>
       <c r="D26">
-        <v>0.5349765251706352</v>
+        <v>0.5349765546192592</v>
       </c>
       <c r="E26">
-        <v>0.0006542062175270332</v>
+        <v>0.0006542062174591605</v>
       </c>
       <c r="F26">
-        <v>-0.04019247341562026</v>
+        <v>-0.04019244396692841</v>
       </c>
       <c r="G26">
-        <v>-0.04918546840347469</v>
+        <v>-0.04918543895468952</v>
       </c>
       <c r="H26">
-        <v>0.1476258799641591</v>
+        <v>0.1476258228258926</v>
       </c>
       <c r="I26">
-        <v>0.1934602513558017</v>
+        <v>0.1934602495970833</v>
       </c>
       <c r="J26">
-        <v>0.05924185123661511</v>
+        <v>0.0592418494770483</v>
       </c>
       <c r="K26">
-        <v>0.01806951476096197</v>
+        <v>0.01806951300180239</v>
       </c>
       <c r="L26">
-        <v>-0.03640666853462703</v>
+        <v>-0.03640663908589648</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1406,37 +1406,37 @@
         <v>43497</v>
       </c>
       <c r="B27">
-        <v>-0.0158958416755365</v>
+        <v>-0.01589583311059921</v>
       </c>
       <c r="C27">
-        <v>0.01883925978583703</v>
+        <v>0.01883926835087401</v>
       </c>
       <c r="D27">
-        <v>0.571143090264571</v>
+        <v>0.5711430988296355</v>
       </c>
       <c r="E27">
-        <v>-0.08822658850993197</v>
+        <v>-0.08822653656488655</v>
       </c>
       <c r="F27">
-        <v>0.04892276367106423</v>
+        <v>0.04892274198087123</v>
       </c>
       <c r="G27">
-        <v>0.003997645948226942</v>
+        <v>0.003997645948266181</v>
       </c>
       <c r="H27">
-        <v>0.05086235691091224</v>
+        <v>0.05086235691090468</v>
       </c>
       <c r="I27">
-        <v>0.2008740949630963</v>
+        <v>0.200874086398159</v>
       </c>
       <c r="J27">
-        <v>0.0666556948443191</v>
+        <v>0.06665568627931819</v>
       </c>
       <c r="K27">
-        <v>0.06141548110350564</v>
+        <v>0.06141545084846869</v>
       </c>
       <c r="L27">
-        <v>0.03379299507470417</v>
+        <v>0.03379298650973985</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1444,37 +1444,37 @@
         <v>43525</v>
       </c>
       <c r="B28">
-        <v>-0.1008246007537299</v>
+        <v>-0.1008245424060581</v>
       </c>
       <c r="C28">
-        <v>0.03132571876805127</v>
+        <v>0.03132572079258902</v>
       </c>
       <c r="D28">
-        <v>0.5881596395225139</v>
+        <v>0.5881596395224121</v>
       </c>
       <c r="E28">
-        <v>-0.05258349308815098</v>
+        <v>-0.05258346290210666</v>
       </c>
       <c r="F28">
-        <v>0.01299064093595305</v>
+        <v>0.01299064093585124</v>
       </c>
       <c r="G28">
-        <v>-0.09794766238747565</v>
+        <v>-0.09794760403982086</v>
       </c>
       <c r="H28">
-        <v>0.0508623569108962</v>
+        <v>0.05086235691089089</v>
       </c>
       <c r="I28">
-        <v>0.2370952450114804</v>
+        <v>0.2370952148253343</v>
       </c>
       <c r="J28">
-        <v>0.0541692358619776</v>
+        <v>0.05416923383767104</v>
       </c>
       <c r="K28">
-        <v>0.1104121174466579</v>
+        <v>0.110412059098984</v>
       </c>
       <c r="L28">
-        <v>0.1187217541527806</v>
+        <v>0.1187216958051346</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1482,37 +1482,37 @@
         <v>43556</v>
       </c>
       <c r="B29">
-        <v>0.0898508489383199</v>
+        <v>0.08985079772783781</v>
       </c>
       <c r="C29">
-        <v>0.01926019913752983</v>
+        <v>0.01926020833328483</v>
       </c>
       <c r="D29">
-        <v>0.5715640296161938</v>
+        <v>0.5715640388119997</v>
       </c>
       <c r="E29">
-        <v>0.05331708184863217</v>
+        <v>0.05331705164550089</v>
       </c>
       <c r="F29">
-        <v>0.1017207822924116</v>
+        <v>0.1017207310817853</v>
       </c>
       <c r="G29">
-        <v>-0.03206961977682635</v>
+        <v>-0.03206959876946069</v>
       </c>
       <c r="H29">
-        <v>0.0674579668169597</v>
+        <v>0.06745795762118774</v>
       </c>
       <c r="I29">
-        <v>0.09512740434951776</v>
+        <v>0.09512745555999562</v>
       </c>
       <c r="J29">
-        <v>-0.003023730044595364</v>
+        <v>-0.003023699841403642</v>
       </c>
       <c r="K29">
-        <v>-0.02760045661415743</v>
+        <v>-0.02760043560678115</v>
       </c>
       <c r="L29">
-        <v>0.01677644581703324</v>
+        <v>0.01677644581703603</v>
       </c>
     </row>
   </sheetData>
